--- a/Calculators/Spreadsheet Calculators/BodyFatViaCalipers.xlsx
+++ b/Calculators/Spreadsheet Calculators/BodyFatViaCalipers.xlsx
@@ -66,8 +66,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -100,7 +100,7 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -109,7 +109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -415,7 +415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
